--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -9,14 +9,14 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="改名工作表" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>常规</t>
   </si>
@@ -67,6 +67,14 @@
   </si>
   <si>
     <t>之前为空行</t>
+  </si>
+  <si>
+    <t>合并单元格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>还是合并单元格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -127,7 +135,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -169,6 +177,9 @@
     </xf>
     <xf numFmtId="55" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -465,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:D19"/>
+  <dimension ref="B2:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -475,166 +486,182 @@
     <col min="3" max="4" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:4" ht="14.25">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>12</v>
+      </c>
+    </row>
     <row r="3" spans="2:4" ht="14.25">
       <c r="B3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12.345000000000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>22.344999999999999</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="14.25">
       <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>12.345000000000001</v>
-      </c>
-      <c r="D4" s="1">
-        <v>22.344999999999999</v>
+        <v>3</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1234567.8899999999</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1234566.8899999999</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="14.25">
       <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1234567.8899999999</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1234566.8899999999</v>
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>123456.78</v>
+      </c>
+      <c r="D5" s="6">
+        <v>123456.88</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="14.25">
       <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6">
-        <v>123456.78</v>
-      </c>
-      <c r="D6" s="6">
-        <v>123456.88</v>
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>42005</v>
+      </c>
+      <c r="D6" s="2">
+        <v>42006</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="14.25">
       <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>42005</v>
-      </c>
-      <c r="D7" s="2">
-        <v>42006</v>
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.58287037037037037</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.5828703703703704</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="14.25">
       <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.58287037037037037</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1.5828703703703704</v>
+        <v>7</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1.23</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="14.25">
       <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7">
-        <v>1.23</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1.1299999999999999</v>
+        <v>8</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2.5</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="14.25">
       <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="D10" s="8">
-        <v>2.5</v>
+        <v>9</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="14.25">
       <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="9">
-        <v>1000</v>
-      </c>
-      <c r="D11" s="9">
-        <v>2000</v>
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="14.25">
       <c r="B12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C12" s="11">
+        <v>200941</v>
+      </c>
+      <c r="D12" s="1">
+        <v>201900</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="14.25">
       <c r="B13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="11">
-        <v>200941</v>
-      </c>
-      <c r="D13" s="1">
-        <v>201900</v>
+        <v>13</v>
+      </c>
+      <c r="C13" s="10">
+        <v>123</v>
+      </c>
+      <c r="D13" s="10">
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="14.25">
       <c r="B14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="10">
+        <v>14</v>
+      </c>
+      <c r="C14" s="12">
         <v>123</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="12">
         <v>124</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="14.25">
       <c r="B15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="12">
-        <v>123</v>
-      </c>
-      <c r="D15" s="12">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="14.25">
-      <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C15" s="13">
         <v>0.52459490740740744</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D15" s="13">
         <v>1000.5245949074074</v>
       </c>
     </row>
-    <row r="19" spans="4:4" ht="14.25">
-      <c r="D19" s="4" t="s">
+    <row r="18" spans="2:4" ht="14.25">
+      <c r="D18" s="4" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="14"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:D20"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -642,9 +669,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
@@ -657,7 +689,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
